--- a/coursework/tdm19marks.xlsx
+++ b/coursework/tdm19marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamalh/STAI/coursework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B01A82-4747-6D4B-82AE-1894E2699770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEC4799-1802-4849-BC56-72682FA83A1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{B9457A87-CC2B-E840-9962-18ED5E28E16D}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
-  <si>
-    <t>Correct methodology but no actual attempt is seen to prove the back relation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Out of</t>
   </si>
@@ -155,19 +152,31 @@
     <t>/6</t>
   </si>
   <si>
-    <t xml:space="preserve">All correct but no attempt to resolve the contradiction	</t>
-  </si>
-  <si>
-    <t>Solution correct and extremely well explained</t>
-  </si>
-  <si>
-    <t>Example well justified</t>
-  </si>
-  <si>
-    <t>Solution could have been simplified futher. However, the explanation given is very strong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solution correct and well explained, though the explanation for steps could have been presented in a stronger manner. However, since the main explanation is the truth condition, the solution is adequate	</t>
+    <t xml:space="preserve">Inductions are correct, but no comment is made regarding the apparent contradiction	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got one solution but missed the other	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution correct and very well explained. However, both conditions not satisfied due to error in a 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct methodology but no actual attempt is seen to prove the back relation	</t>
+  </si>
+  <si>
+    <t>Solution doesn't adhere to the statements made by 'Release'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution well explained and correct, although missing the resolution of one solution due to the error in a 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A direct proof of the equivalence between truth conditions is required.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though the example is justified in the lectures, a proof should have been given	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All cases considered and well thought out	</t>
   </si>
 </sst>
 </file>
@@ -333,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -370,9 +379,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -388,17 +394,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -735,7 +732,7 @@
   <dimension ref="B2:AD37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="38" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="D2" sqref="D2:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,7 +742,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>49</v>
@@ -791,49 +788,51 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="2:30" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="28" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="2:30" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="2:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="2:30" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:30" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="21"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -845,19 +844,19 @@
     </row>
     <row r="8" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="20"/>
     </row>
@@ -876,31 +875,31 @@
     </row>
     <row r="11" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D11" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="2:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D13" s="8">
@@ -935,27 +934,27 @@
     </row>
     <row r="16" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D16" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="18"/>
     </row>
     <row r="17" spans="4:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="8">
@@ -986,7 +985,7 @@
     </row>
     <row r="21" spans="4:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D21" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="16"/>
@@ -996,29 +995,31 @@
       <c r="J21" s="16"/>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="4:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="38"/>
-    </row>
-    <row r="23" spans="4:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+    <row r="22" spans="4:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="4:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="21"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
     </row>
     <row r="24" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="19"/>
@@ -1043,29 +1044,29 @@
     </row>
     <row r="27" spans="4:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D27" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="16"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33"/>
+      <c r="H28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="4:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="8">
@@ -1075,7 +1076,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="19"/>
@@ -1098,45 +1099,47 @@
     </row>
     <row r="32" spans="4:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E32" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
+      <c r="E33" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="27"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="35"/>
+      <c r="I33" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="31"/>
     </row>
     <row r="34" spans="4:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="21"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
+      <c r="G34" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="4:10" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="21"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E36" s="8">
@@ -1159,11 +1162,13 @@
       <c r="G37" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="H5:I7"/>
+    <mergeCell ref="D22:G23"/>
     <mergeCell ref="J5:K7"/>
     <mergeCell ref="I33:J35"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H6:I7"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="G34:H35"/>
     <mergeCell ref="F5:G7"/>
@@ -1180,7 +1185,6 @@
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H17:K17"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
